--- a/FormatUserStories.xlsx
+++ b/FormatUserStories.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UB\2017-2018\1r_semestre\info\DS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="555" yWindow="555" windowWidth="25035" windowHeight="16905" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="16900" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="68">
   <si>
     <t>Criterios de Aceptación</t>
   </si>
@@ -48,27 +43,48 @@
     <t>Identificador (ID) de la Història</t>
   </si>
   <si>
+    <t>Com a [Rol]</t>
+  </si>
+  <si>
+    <t>Vull [Descripció de la Funcionalitat]</t>
+  </si>
+  <si>
     <t>Característica / Funcionalitat</t>
   </si>
   <si>
     <t>Raó/Resultat/Objectiu</t>
   </si>
   <si>
+    <t>perquè així  [Descripció del perquè o del resultat]</t>
+  </si>
+  <si>
     <t>Número (#) d'Escenari</t>
   </si>
   <si>
     <t>Criterio de Aceptació (Títol)</t>
   </si>
   <si>
+    <t>[Titol de l'escenari]</t>
+  </si>
+  <si>
     <t>Context</t>
   </si>
   <si>
+    <t>En cas que [Context] i/ o [Context]</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
+    <t>quan [Event]</t>
+  </si>
+  <si>
     <t>Resultat / Comportament esperat</t>
   </si>
   <si>
+    <t>el sistema [Resultat / Comportament]</t>
+  </si>
+  <si>
     <t>Instruccions</t>
   </si>
   <si>
@@ -211,124 +227,13 @@
   </si>
   <si>
     <t>Això equival al titol descriptiu de la història que pot usar-se per fer-li referència en la llista de funcionalitats del producte junt amb  el seu codi</t>
-  </si>
-  <si>
-    <t>valorar episodi</t>
-  </si>
-  <si>
-    <t>Com a client no registrat</t>
-  </si>
-  <si>
-    <t>valorar episodi 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> veure episodi 1</t>
-  </si>
-  <si>
-    <t>Vull veure el episodi</t>
-  </si>
-  <si>
-    <t>perquè així  puc entretenir-me</t>
-  </si>
-  <si>
-    <t>veure episodi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En cas que el client no estigui registrat </t>
-  </si>
-  <si>
-    <t>quan el client premi el botó veure episodi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Com a client registrat </t>
-  </si>
-  <si>
-    <t>veure episodi 2</t>
-  </si>
-  <si>
-    <t>el sistema reprodueix per una pantalla l'episodi</t>
-  </si>
-  <si>
-    <t>Vull valorar el episodi</t>
-  </si>
-  <si>
-    <t>perquè així  puc donar la meva opinió.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valorar episodi </t>
-  </si>
-  <si>
-    <t>quan el client premi el botó valorar episodi</t>
-  </si>
-  <si>
-    <t>Perquè així puc donar la meva opinió.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quan el client premi el botó valorar episodi  </t>
-  </si>
-  <si>
-    <t>el sistema mostra un missatge que notifica al client que s'ha de registrar-se per poder veure l'episodi. I ofereix un botó per poder registrar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">el sistema  mostra un missatge que el client no s'ha vist l'episodi encara i torna a la pàgina on hi ha el botó de veure episodi. </t>
-  </si>
-  <si>
-    <t>el sistema  mostra una pantalla amb un "qüestionari" de valoració i un botó per desar la valoració en el registre. Després torna a la pàgina anterior.</t>
-  </si>
-  <si>
-    <t>Vull poder parar el stop/skip/play/replay</t>
-  </si>
-  <si>
-    <t>perquè així puc fer altres coses més importants.</t>
-  </si>
-  <si>
-    <t>operacions amb l'episodi</t>
-  </si>
-  <si>
-    <t>En cas que el client està veient l'episodi</t>
-  </si>
-  <si>
-    <t>quan el client premi el botó stop/skip/play/replay</t>
-  </si>
-  <si>
-    <t>el sistema stop/skip/play/replay el strem de l'episodi</t>
-  </si>
-  <si>
-    <t>En cas que el client està fent el qüestionari</t>
-  </si>
-  <si>
-    <t>quan el client premi el botó cancelar.</t>
-  </si>
-  <si>
-    <t>el sistema torna a la pàgina anterior sense desar res.</t>
-  </si>
-  <si>
-    <t>En cas que el client estigui registrat però encara no s'ha vist l'episodi i vol valorar l'episodi.</t>
-  </si>
-  <si>
-    <t>En cas que el client estigui registrat s'ha vist l'episodi  i vol valorar l'episodi..</t>
-  </si>
-  <si>
-    <t>En cas que el client no estigui registrat i vol veure l'episodi.</t>
-  </si>
-  <si>
-    <t>En cas que el client estigui registrat i vol veure l'episodi.</t>
-  </si>
-  <si>
-    <t>Finestra per registrar / veure episodi</t>
-  </si>
-  <si>
-    <t>perquè així  puc entretenir-me,…</t>
-  </si>
-  <si>
-    <t>valorar episodi 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -375,21 +280,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -489,7 +379,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -507,15 +397,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -602,14 +483,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -934,28 +807,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="33.875" customWidth="1"/>
-    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="42.875" customWidth="1"/>
-    <col min="6" max="6" width="23.375" customWidth="1"/>
-    <col min="7" max="7" width="26.375" customWidth="1"/>
-    <col min="8" max="8" width="44.375" customWidth="1"/>
-    <col min="9" max="9" width="23.875" customWidth="1"/>
-    <col min="10" max="10" width="41.875" customWidth="1"/>
+    <col min="5" max="5" width="42.83203125" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="44.33203125" customWidth="1"/>
+    <col min="9" max="9" width="23.83203125" customWidth="1"/>
+    <col min="10" max="10" width="41.83203125" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="4" t="s">
         <v>4</v>
@@ -972,7 +845,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -983,62 +856,62 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -1046,14 +919,24 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -1061,14 +944,24 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -1076,14 +969,24 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>7</v>
       </c>
@@ -1098,71 +1001,65 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>9</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1">
         <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -1170,14 +1067,24 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -1185,14 +1092,24 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="F11" s="1">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -1207,40 +1124,40 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+    <row r="13" spans="1:11">
+      <c r="A13" s="2">
         <v>13</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="9">
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>79</v>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>14</v>
       </c>
@@ -1248,14 +1165,24 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -1263,27 +1190,47 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1296,7 +1243,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1309,72 +1256,9 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="7">
-        <v>1</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="F20" s="7">
-        <v>2</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="F21" s="7">
-        <v>3</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1384,190 +1268,190 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="99.625" customWidth="1"/>
-    <col min="4" max="4" width="37.375" customWidth="1"/>
+    <col min="3" max="3" width="99.6640625" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="C3" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30">
       <c r="A12" s="2">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30">
       <c r="A14" s="2">
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="2">
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="2">
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30">
       <c r="A17" s="2">
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="D23" s="1"/>
     </row>
   </sheetData>
@@ -1590,28 +1474,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.125" customWidth="1"/>
-    <col min="2" max="2" width="26.875" customWidth="1"/>
+    <col min="1" max="1" width="2.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="39.125" customWidth="1"/>
-    <col min="5" max="5" width="31.625" customWidth="1"/>
-    <col min="6" max="6" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="34.875" customWidth="1"/>
+    <col min="8" max="8" width="34.83203125" customWidth="1"/>
     <col min="9" max="9" width="32" customWidth="1"/>
-    <col min="10" max="10" width="39.625" customWidth="1"/>
+    <col min="10" max="10" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1"/>
       <c r="B1" s="4" t="s">
         <v>4</v>
@@ -1627,7 +1511,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -1638,29 +1522,29 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="45">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -1668,32 +1552,32 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="45">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -1705,20 +1589,20 @@
         <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="30">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -1730,20 +1614,20 @@
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1756,7 +1640,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1781,95 +1665,93 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="2" max="2" width="86.625" customWidth="1"/>
+    <col min="2" max="2" width="86.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="30">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="30">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="30">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="30">
       <c r="A11" s="2">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="30">
       <c r="A13" s="2">
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1884,82 +1766,82 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="74.625" customWidth="1"/>
-    <col min="2" max="2" width="120.125" customWidth="1"/>
-    <col min="4" max="4" width="39.125" customWidth="1"/>
+    <col min="1" max="1" width="74.6640625" customWidth="1"/>
+    <col min="2" max="2" width="120.1640625" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
